--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheMix\Desktop\Simple_moving_average\SimpleMovingAverage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheMix\Desktop\Simple_moving_average\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0247BD-15B8-420C-B162-50643FD1B877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DC9C97-0E8E-49D1-B0C0-5093AB3AD845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="5775" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Type / WindowSize</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>float</t>
   </si>
   <si>
     <t>double</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.233</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>Количество отсчетов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип </t>
+  </si>
+  <si>
+    <t>Размер окна</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Время работы функции, сек</t>
+  </si>
+  <si>
+    <t>До пересчета в единицы "отсчеты / сек "</t>
+  </si>
+  <si>
+    <t>После пересчета в единицы "отсчеты / сек "</t>
+  </si>
+  <si>
+    <t>Отсчеты / сек</t>
+  </si>
+  <si>
+    <t>Время работы функции / сек</t>
+  </si>
+  <si>
+    <t>График строился по данной таблице</t>
   </si>
 </sst>
 </file>
@@ -58,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,8 +143,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,16 +179,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +268,1132 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Отсеты / сек для 1000000 значений</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBD4-470C-A3DF-99E8401007BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>double</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45454545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45454545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47619047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47619047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47619047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45454545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DBD4-470C-A3DF-99E8401007BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="773135808"/>
+        <c:axId val="773144448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="773135808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773144448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="773144448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Отсчеты / сек</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773135808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22C9F8A-08A8-3598-4750-650219D4EECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,64 +1659,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4">
+        <v>64</v>
+      </c>
+      <c r="H3" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4">
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
         <v>8</v>
       </c>
-      <c r="D1" s="4">
+      <c r="E8" s="4">
         <v>16</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F8" s="4">
         <v>32</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G8" s="4">
         <v>64</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H8" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="K13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4">
+        <v>64</v>
+      </c>
+      <c r="H14" s="4">
+        <v>128</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>83333333</v>
+      </c>
+      <c r="D15" s="13">
+        <v>83333333</v>
+      </c>
+      <c r="E15" s="13">
+        <v>83333333</v>
+      </c>
+      <c r="F15" s="13">
+        <v>83333333</v>
+      </c>
+      <c r="G15" s="13">
+        <v>83333333</v>
+      </c>
+      <c r="H15" s="13">
+        <v>83333333</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>45454545</v>
+      </c>
+      <c r="D16" s="14">
+        <v>45454545</v>
+      </c>
+      <c r="E16" s="14">
+        <v>47619047</v>
+      </c>
+      <c r="F16" s="14">
+        <v>47619047</v>
+      </c>
+      <c r="G16" s="14">
+        <v>47619047</v>
+      </c>
+      <c r="H16" s="14">
+        <v>45454545</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4">
+        <v>64</v>
+      </c>
+      <c r="H19" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>76923076</v>
+      </c>
+      <c r="D20" s="2">
+        <v>78740157</v>
+      </c>
+      <c r="E20" s="2">
+        <v>79365079</v>
+      </c>
+      <c r="F20" s="2">
+        <v>79365079</v>
+      </c>
+      <c r="G20" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43668122</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44247787</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44247787</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44843049</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44843049</v>
+      </c>
+      <c r="H21" s="3">
+        <v>42918454</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K13:M16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C7:H7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>